--- a/resources/importancia-disciplinas-iteraciones.xlsx
+++ b/resources/importancia-disciplinas-iteraciones.xlsx
@@ -445,7 +445,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>Pruebas</c:v>
+            <c:v>Implementación</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -534,6 +534,9 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
+          <c:tx>
+            <c:v>Pruebas</c:v>
+          </c:tx>
           <c:cat>
             <c:strRef>
               <c:f>Hoja1!$B$7:$L$7</c:f>
@@ -626,12 +629,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="80260480"/>
-        <c:axId val="80274560"/>
-        <c:axId val="59820224"/>
+        <c:axId val="119745152"/>
+        <c:axId val="119759232"/>
+        <c:axId val="79042752"/>
       </c:area3DChart>
       <c:catAx>
-        <c:axId val="80260480"/>
+        <c:axId val="119745152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -640,7 +643,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80274560"/>
+        <c:crossAx val="119759232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -648,7 +651,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80274560"/>
+        <c:axId val="119759232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -659,12 +662,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80260480"/>
+        <c:crossAx val="119745152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="59820224"/>
+        <c:axId val="79042752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -673,7 +676,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80274560"/>
+        <c:crossAx val="119759232"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -1199,12 +1202,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="88843776"/>
-        <c:axId val="88845312"/>
+        <c:axId val="120259328"/>
+        <c:axId val="120260864"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="88843776"/>
+        <c:axId val="120259328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1213,7 +1216,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88845312"/>
+        <c:crossAx val="120260864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1221,7 +1224,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88845312"/>
+        <c:axId val="120260864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1232,7 +1235,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88843776"/>
+        <c:crossAx val="120259328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1666,12 +1669,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="89138688"/>
-        <c:axId val="89140224"/>
-        <c:axId val="88817152"/>
+        <c:axId val="120292096"/>
+        <c:axId val="120293632"/>
+        <c:axId val="119758336"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="89138688"/>
+        <c:axId val="120292096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1680,7 +1683,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89140224"/>
+        <c:crossAx val="120293632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1688,7 +1691,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89140224"/>
+        <c:axId val="120293632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1699,12 +1702,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89138688"/>
+        <c:crossAx val="120292096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="88817152"/>
+        <c:axId val="119758336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1713,7 +1716,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89140224"/>
+        <c:crossAx val="120293632"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -1744,13 +1747,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:colOff>276224</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:colOff>723900</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
@@ -2124,7 +2127,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
